--- a/biology/Zoologie/Canis_lepophagus/Canis_lepophagus.xlsx
+++ b/biology/Zoologie/Canis_lepophagus/Canis_lepophagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canis lepophagus est une espèce éteinte de Canidés qui était endémique d'une grande partie de l'Amérique du Nord. Il est proposé qu'il soit à l'origine des loups et des coyotes.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Canis lepophagus est issu du latin: canis: « chien », leporem : « lièvre » ou « lapin » associé au suffixe -phagus : « mangeur » : le « chien mangeur de lièvre ».
 </t>
@@ -542,14 +556,14 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pliocène supérieur en Amérique du Nord. Il y a un accord général sur le plus ancien fossile, ce qui montre que Féliformes et Caniformes ont émergé au sein de la super-famille des Carnivoramorpha il y a 43 millions d'années. Les caniformes incluent le renard Leptocyon dont les différentes espèces ont existé à partir de 34 millions d'années, avant de devenir à 11,9 millions d'années Vulpes (renard) et les canini (canins). Le chacal d'Eucyon existait en Amérique du Nord il y a 10 millions d'années et au  Pliocène supérieur entre 6-5 millions d'années les coyotes Eucyon davisi ont envahi l'Eurasie. En Amérique du Nord, il a donné lieu au genre Canis qui est d'abord apparu dans le Miocène (6 millions d'années) dans le sud-ouest des États-Unis et au Mexique. Il y a 5 millions d'années, Canis lepophagus est apparu dans la même région et au  Pléistocène inférieur (1 million d'années) C. latrans (le coyote) y habitait déjà. Ils ont supposé que l'évolution de Eucyon davisi à C. lepophagus au coyote était une évolution linéaire:p58.
 Kurten a proposé que Blancan C. lepophagus a dérivé à partir de petites espèces de Canis du Miocène en Amérique du Nord. Ensuite, il s'est répandu à travers l'Eurasie, où il a été soit identiques soit étroitement lié avec C. arnensis:p241.
 Johnston décrit C. lepophagus comme ayant un crâne et un squelette plus mince que celui du coyote moderne:385. Nowak trouva que les premières populations étaient petites, avec des proportions de crânes qui ressemblent à celle de petit coyote et semblent être antérieure à C. latrans.:p241 Johnson a observé que certains des spécimens trouvés dans la Cita Canyon, au Texas, avait de plus grands et de plus larges crânes et, avec d'autres fragments, Nowak a suggéré que ceux-ci avaient évolué vers des loups:p241.
 Tedford était en désaccord avec les auteurs précédents et a constaté qu'à sa morphologie dentaire manquait quelques caractéristiques qui sont partagées par C. lupus et C. latrans et, par conséquent, il n'y a pas de relation de proximité, mais il suggère que C. lepophagus était l'ancêtre des loups et des coyotes:p119. En outre, C. edwardii, C. latrans et C. aureus forment ensemble un petit clade et parce que C. edwardii est apparu plus tôt et a couver la moitié de Blancan (fin du Pliocène) à la clôture de l'Irvingtonian[pas clair] (fin du Pléistocène) C. edwardii  a été proposé comme le descendant de C. lepophagus et l'ancêtre du coyote et du chacal doré.:p58:p175,180
-Répartition des fossiles
-Johnston nomme C. lepophagus en 1938. Le premier fossile a été retrouvé dans la Cita Canyon, au Texas. Les découvertes ultérieures de spécimens ont été trouvés dans quatre autres sites au Texas, Tonuco Montagne, au Nouveau-Mexique, à l'ouest de Washington[2] Sante Fe River, en Floride[3], Black Ranch dans le nord de la Californie, ainsi que dans des sites au Nebraska, en Idaho, dans Utah, et en Oklahoma.
 </t>
         </is>
       </c>
@@ -575,12 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Deux spécimens ont été estimés respectivement à 18,5 kg et 17 kg[4].
+          <t>Répartition des fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johnston nomme C. lepophagus en 1938. Le premier fossile a été retrouvé dans la Cita Canyon, au Texas. Les découvertes ultérieures de spécimens ont été trouvés dans quatre autres sites au Texas, Tonuco Montagne, au Nouveau-Mexique, à l'ouest de Washington Sante Fe River, en Floride, Black Ranch dans le nord de la Californie, ainsi que dans des sites au Nebraska, en Idaho, dans Utah, et en Oklahoma.
 </t>
         </is>
       </c>
@@ -606,10 +626,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux spécimens ont été estimés respectivement à 18,5 kg et 17 kg.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canis_lepophagus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canis_lepophagus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Canidés concurrents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C. lepophagus vécu avec Borophagus.
 </t>
